--- a/master/doc/WNV Data Retrieval Protocol.xlsx
+++ b/master/doc/WNV Data Retrieval Protocol.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\wnv\master\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="915" windowWidth="19815" windowHeight="7005"/>
   </bookViews>
@@ -26,7 +31,7 @@
     <author>Chen Yoffe</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +209,7 @@
     <author>Chen Yoffe</author>
   </authors>
   <commentList>
-    <comment ref="A31" authorId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1333,14 +1338,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1362,7 +1370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1404,7 +1412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1439,7 +1447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1654,10 +1662,10 @@
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54:H56"/>
+      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
